--- a/point_disorder_paper/figures/sensitivity_lockeland.xlsx
+++ b/point_disorder_paper/figures/sensitivity_lockeland.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4039CD9-E6DD-4341-BF7A-269F19E76536}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C206F7-FAD9-4E5D-8F60-4C8A78AD708D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3690" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sensitivity_lockeland" sheetId="1" r:id="rId1"/>
@@ -598,23 +598,27 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -663,6 +667,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCCCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -974,7 +985,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="N11" sqref="A1:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -983,66 +994,66 @@
     <col min="2" max="2" width="9.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>4.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>5.5</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>6.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <v>7</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>7.5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="3">
         <v>8</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="3">
         <v>8.5</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="3">
         <v>9</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>9.5</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="3">
         <v>10</v>
       </c>
     </row>
@@ -1050,379 +1061,379 @@
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="9">
         <v>9.6338273757628698E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="9">
         <v>8.98726680485636E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="9">
         <v>7.9453289276058894E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="9">
         <v>8.3257090576395298E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="9">
         <v>8.7932647333957101E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="9">
         <v>8.5561497326203106E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="9">
         <v>6.7683508102954995E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="9">
         <v>5.2784036047634202E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="9">
         <v>5.7935735150924997E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="9">
         <v>3.9607201309329002E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="9">
         <v>3.41246290801187E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="9">
         <v>2.2129783693843601E-2</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="9">
         <v>0.31086165599736099</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="9">
         <v>0.32813465409682502</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="9">
         <v>0.34439590934785902</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="9">
         <v>0.36831499488229202</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="9">
         <v>0.37123268812467303</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="9">
         <v>0.37056614428914297</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="9">
         <v>0.369633351001313</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="9">
         <v>0.36423544917507999</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="9">
         <v>0.35407003675696402</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="9">
         <v>0.34060155905280198</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="9">
         <v>0.33134462487050498</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="9">
         <v>0.31315752826342902</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>19</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <v>0.33707076585983697</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="9">
         <v>0.366947399099671</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="9">
         <v>0.39920269321286</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="9">
         <v>0.42605766270103002</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="9">
         <v>0.43685331413483502</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="9">
         <v>0.41858394415912697</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="9">
         <v>0.39794802186198402</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="9">
         <v>0.39056748912403999</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="9">
         <v>0.37560987191205902</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="9">
         <v>0.37810968119668897</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="9">
         <v>0.368527508369207</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="9">
         <v>0.36659147572123901</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>21</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>0.32869505747428701</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="9">
         <v>0.35667397571677301</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="9">
         <v>0.388008478853336</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="9">
         <v>0.41499628619088202</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="9">
         <v>0.42645926502041598</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="9">
         <v>0.40972641776760699</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="9">
         <v>0.392123808207821</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="9">
         <v>0.38790598822026501</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="9">
         <v>0.37615310318502199</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="9">
         <v>0.37475895531009201</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="9">
         <v>0.365782654209441</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="9">
         <v>0.35655691479470603</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>23</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="9">
         <v>0.31602778259231001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="9">
         <v>0.33225015596669</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="9">
         <v>0.35184177226764801</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="9">
         <v>0.37276833155017902</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="9">
         <v>0.37335720643116199</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="9">
         <v>0.36549194611616798</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="9">
         <v>0.35377102274488298</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="9">
         <v>0.33383462414412102</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="9">
         <v>0.31945835780165099</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="9">
         <v>0.30144717679393301</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="9">
         <v>0.28682189495565802</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="9">
         <v>0.27892903707321098</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>25</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <v>0.28277648941376898</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="9">
         <v>0.30793817804604001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="9">
         <v>0.33238334265477298</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>0.33656741298499798</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="9">
         <v>0.33508497134423998</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="9">
         <v>0.326120490167494</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="9">
         <v>0.315424838967375</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="9">
         <v>0.299679283924428</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="9">
         <v>0.274440558467266</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="9">
         <v>0.24629032904015599</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="9">
         <v>0.23147190585755001</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="9">
         <v>0.20258627258303799</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>27</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="9">
         <v>0.253008607561927</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="9">
         <v>0.282978971416183</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="9">
         <v>0.30349247661395101</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="9">
         <v>0.30834924443346401</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="9">
         <v>0.30657783812415601</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="9">
         <v>0.29461964598387702</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="9">
         <v>0.27790340496238197</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="9">
         <v>0.23617608563245901</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="9">
         <v>0.19798570031123</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="9">
         <v>0.17257518025928001</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="9">
         <v>0.15427296767583601</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="9">
         <v>0.13474106859122401</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>29</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="9">
         <v>0.23746705440874899</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="9">
         <v>0.26370223712694402</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="9">
         <v>0.28428164495908698</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="9">
         <v>0.28464709758571799</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="9">
         <v>0.27333223652966798</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="9">
         <v>0.25295874109108302</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="9">
         <v>0.235435566215666</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="9">
         <v>0.20575196257002101</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="9">
         <v>0.18562297424033</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="9">
         <v>0.17395948715654899</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="9">
         <v>0.13791346393607901</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="9">
         <v>0.118035771163646</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>31</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="9">
         <v>0.27178471275309302</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="9">
         <v>0.28073899894392701</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="9">
         <v>0.30619396063073201</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="9">
         <v>0.30552444223894298</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="9">
         <v>0.30840258937463499</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="9">
         <v>0.30056550743286697</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="9">
         <v>0.24960671211326599</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="9">
         <v>0.23076636599953801</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="9">
         <v>0.20228991792817899</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="9">
         <v>0.189440844218739</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="9">
         <v>0.148648984838223</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="9">
         <v>0.119728513688705</v>
       </c>
     </row>
@@ -1638,9 +1649,9 @@
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="0.5"/>
         <cfvo type="num" val="1"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFCCCC"/>
+        <color rgb="FFFFFFCC"/>
+        <color rgb="FFCCFFCC"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
